--- a/PCQA/ExcelRehabilitaciones.xlsx
+++ b/PCQA/ExcelRehabilitaciones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\DataSources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616B0193-76EE-4187-8813-360CB61D057E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E52CED0-9847-4C13-9624-6D5364B2A9E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
     <t>i-preproducciongestion.segurossura.com.ar</t>
   </si>
   <si>
-    <t>04104008320</t>
+    <t>12112001753</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PCQA/ExcelRehabilitaciones.xlsx
+++ b/PCQA/ExcelRehabilitaciones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E52CED0-9847-4C13-9624-6D5364B2A9E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0EB766-507C-4435-8A4F-13CD50B1716A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>NroPoliza</t>
   </si>
@@ -45,31 +45,13 @@
     <t>silverarrow</t>
   </si>
   <si>
-    <t>ssurgwsoadev4.opc.oracleoutsourcing.com</t>
-  </si>
-  <si>
-    <t>https://ssurgwsoadev4.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
-  </si>
-  <si>
-    <t>gw</t>
-  </si>
-  <si>
-    <t>i-gestion-ssur-oci.opc.oracleoutsourcing.com</t>
-  </si>
-  <si>
-    <t>https://i-gestion-ssur-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
-  </si>
-  <si>
-    <t>suraqa</t>
-  </si>
-  <si>
     <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
   </si>
   <si>
     <t>i-preproducciongestion.segurossura.com.ar</t>
   </si>
   <si>
-    <t>12112001753</t>
+    <t>04104013566</t>
   </si>
 </sst>
 </file>
@@ -549,7 +531,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,10 +560,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -590,43 +572,17 @@
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3">
-        <v>11410004659</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2">
-        <v>11111001315</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="E5" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E5">
@@ -648,12 +604,8 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{9554D741-66C7-446E-A41A-F29F6F57235F}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{7FB28C34-2069-4F19-A2AC-E6788B5780DD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
